--- a/spliced/walkingToRunning/2023-04-03_17-00-37/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_17-00-37/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.168524476046066</v>
+        <v>3.577567869787046</v>
       </c>
       <c r="B2" t="n">
-        <v>-9.669631647141598</v>
+        <v>-6.830358225996321</v>
       </c>
       <c r="C2" t="n">
-        <v>6.291729929697442</v>
+        <v>7.436059972857905</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.060296274680465</v>
+        <v>1.296618202114653</v>
       </c>
       <c r="B3" t="n">
-        <v>-15.79789317115233</v>
+        <v>-9.790127622488438</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3408509170152625</v>
+        <v>8.772651798817325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.5631605959728705</v>
+        <v>2.168524476046066</v>
       </c>
       <c r="B4" t="n">
-        <v>-8.337644126533947</v>
+        <v>-9.669631647141598</v>
       </c>
       <c r="C4" t="n">
-        <v>4.529721613088265</v>
+        <v>6.291729929697442</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.606977947509096</v>
+        <v>2.060296274680465</v>
       </c>
       <c r="B5" t="n">
-        <v>2.749581334340653</v>
+        <v>-15.79789317115233</v>
       </c>
       <c r="C5" t="n">
-        <v>8.704148023826628</v>
+        <v>-0.3408509170152625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.878962026775263</v>
+        <v>-0.5631605959728705</v>
       </c>
       <c r="B6" t="n">
-        <v>1.780854188276234</v>
+        <v>-8.337644126533947</v>
       </c>
       <c r="C6" t="n">
-        <v>10.20314644976877</v>
+        <v>4.529721613088265</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10.25311217123632</v>
+        <v>-2.606977947509096</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2482639649954936</v>
+        <v>2.749581334340653</v>
       </c>
       <c r="C7" t="n">
-        <v>14.13474797939069</v>
+        <v>8.704148023826628</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17.30286970191231</v>
+        <v>2.878962026775263</v>
       </c>
       <c r="B8" t="n">
-        <v>-7.345501588852901</v>
+        <v>1.780854188276234</v>
       </c>
       <c r="C8" t="n">
-        <v>6.160751110941108</v>
+        <v>10.20314644976877</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16.77036626826363</v>
+        <v>10.25311217123632</v>
       </c>
       <c r="B9" t="n">
-        <v>-17.12453539200271</v>
+        <v>0.2482639649954936</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.154467277105418</v>
+        <v>14.13474797939069</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-10.87548799672837</v>
+        <v>17.30286970191231</v>
       </c>
       <c r="B10" t="n">
-        <v>-11.36323502050577</v>
+        <v>-7.345501588852901</v>
       </c>
       <c r="C10" t="n">
-        <v>5.413032257754492</v>
+        <v>6.160751110941108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-2.876455623141776</v>
+        <v>16.77036626826363</v>
       </c>
       <c r="B11" t="n">
-        <v>-32.54226410586523</v>
+        <v>-17.12453539200271</v>
       </c>
       <c r="C11" t="n">
-        <v>19.61913488187845</v>
+        <v>-5.154467277105418</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>50.47583389150513</v>
+        <v>-10.87548799672837</v>
       </c>
       <c r="B12" t="n">
-        <v>-7.503464556530675</v>
+        <v>-11.36323502050577</v>
       </c>
       <c r="C12" t="n">
-        <v>25.77431648212245</v>
+        <v>5.413032257754492</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.833547540791238</v>
+        <v>-2.876455623141776</v>
       </c>
       <c r="B13" t="n">
-        <v>-13.35906494519977</v>
+        <v>-32.54226410586523</v>
       </c>
       <c r="C13" t="n">
-        <v>15.55757014659218</v>
+        <v>19.61913488187845</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-26.51655229810853</v>
+        <v>50.47583389150513</v>
       </c>
       <c r="B14" t="n">
-        <v>11.14541947380614</v>
+        <v>-7.503464556530675</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.497799986633812</v>
+        <v>25.77431648212245</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-6.805932935430175</v>
+        <v>-1.833547540791238</v>
       </c>
       <c r="B15" t="n">
-        <v>7.032340392223448</v>
+        <v>-13.35906494519977</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9721723077047082</v>
+        <v>15.55757014659218</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-11.96539219176566</v>
+        <v>-26.51655229810853</v>
       </c>
       <c r="B16" t="n">
-        <v>-7.304819296736614</v>
+        <v>11.14541947380614</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.098955452112834</v>
+        <v>-8.497799986633812</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8.602804305145005</v>
+        <v>-6.805932935430175</v>
       </c>
       <c r="B17" t="n">
-        <v>-42.36363804537932</v>
+        <v>7.032340392223448</v>
       </c>
       <c r="C17" t="n">
-        <v>16.64096578313493</v>
+        <v>0.9721723077047082</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.5536478593204315</v>
+        <v>-11.96539219176566</v>
       </c>
       <c r="B18" t="n">
-        <v>-8.825340818963561</v>
+        <v>-7.304819296736614</v>
       </c>
       <c r="C18" t="n">
-        <v>13.45371311672483</v>
+        <v>-2.098955452112834</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10.92389786441021</v>
+        <v>8.602804305145005</v>
       </c>
       <c r="B19" t="n">
-        <v>-9.957679432400008</v>
+        <v>-42.36363804537932</v>
       </c>
       <c r="C19" t="n">
-        <v>23.96456188391583</v>
+        <v>16.64096578313493</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-56.21321548546163</v>
+        <v>0.5536478593204315</v>
       </c>
       <c r="B20" t="n">
-        <v>-8.083060754596882</v>
+        <v>-8.825340818963561</v>
       </c>
       <c r="C20" t="n">
-        <v>-10.20085607707802</v>
+        <v>13.45371311672483</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>10.92389786441021</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-9.957679432400008</v>
+      </c>
+      <c r="C21" t="n">
+        <v>23.96456188391583</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-56.21321548546163</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-8.083060754596882</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-10.20085607707802</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>-5.554620584730344</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B23" t="n">
         <v>4.939894823738217</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>-16.05567953204582</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-5.125987016035118</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-3.317670953866559</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-10.087697013307</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>12.1697812054039</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-11.89667802884434</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.7975602624165994</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>13.27590551955934</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.014137889798754</v>
+      </c>
+      <c r="C26" t="n">
+        <v>9.396237328566208</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-4.693403524588408</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-26.48646446354427</v>
+      </c>
+      <c r="C27" t="n">
+        <v>34.13960077485957</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-13.05436339826206</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-24.43262726167378</v>
+      </c>
+      <c r="C28" t="n">
+        <v>17.33472581726497</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-15.37497096825698</v>
+      </c>
+      <c r="B29" t="n">
+        <v>11.57301431993091</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-14.26161232310758</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-9.968023679533061</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-3.754608689092123</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.53524044205469</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-3.008851450780502</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-11.21099381420506</v>
+      </c>
+      <c r="C31" t="n">
+        <v>19.69571330665882</v>
       </c>
     </row>
   </sheetData>
